--- a/assets/excel/Despidos Injustificados grupo w.xlsx
+++ b/assets/excel/Despidos Injustificados grupo w.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Calculos para grupo w</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Prima Antiguedad</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Subtotal</t>
   </si>
   <si>
     <t>a</t>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>Carpintero</t>
+  </si>
+  <si>
+    <t>Manetnimineto</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -160,12 +181,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -481,17 +505,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -501,7 +525,7 @@
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8.283690999999999" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="19.138184" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
@@ -517,7 +541,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
@@ -526,210 +550,311 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>200</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>152</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>14991.8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>2498.63</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>999.452</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>249.863</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>1998.9</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>20738.6</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>24</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>1183.56</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>197.26</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>78.9041</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>19.726</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>157.808</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>1637.26</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>150</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>16</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>591.7809999999999</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>98.6301</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>39.4521</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>9.863009999999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>78.9041</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>818.63</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>100</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>16</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>394.521</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>65.7534</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>26.3014</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>6.57534</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>52.6027</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>545.753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="6">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8284.93</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1380.82</v>
+      </c>
+      <c r="J7" s="6">
+        <v>552.329</v>
+      </c>
+      <c r="K7" s="6">
+        <v>138.082</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1104.66</v>
+      </c>
+      <c r="M7" s="7">
+        <v>11460.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="6">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7150.69</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1191.78</v>
+      </c>
+      <c r="J8" s="6">
+        <v>476.712</v>
+      </c>
+      <c r="K8" s="6">
+        <v>119.178</v>
+      </c>
+      <c r="L8" s="6">
+        <v>953.425</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9891.780000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7">
+        <v>45092.84</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Despidos Injustificados grupo w.xlsx
+++ b/assets/excel/Despidos Injustificados grupo w.xlsx
@@ -150,13 +150,19 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="37D122"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -204,6 +210,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -508,7 +517,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -853,7 +862,7 @@
       <c r="L9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>45092.84</v>
       </c>
     </row>
